--- a/rhla_analysis/rhla1_3_uniform_result/k9.xlsx
+++ b/rhla_analysis/rhla1_3_uniform_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00164492626741518</v>
+        <v>0.001644926267415172</v>
       </c>
       <c r="B2" t="n">
         <v>0.1068585572017891</v>
@@ -466,12 +466,12 @@
         <v>0.1692242114236999</v>
       </c>
       <c r="D2" t="n">
-        <v>64.96252100691757</v>
+        <v>64.96252100691788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0007936521059901294</v>
+        <v>0.0007936521059901272</v>
       </c>
       <c r="B3" t="n">
         <v>0.1203279812869774</v>
@@ -480,12 +480,12 @@
         <v>0.1896845694799659</v>
       </c>
       <c r="D3" t="n">
-        <v>151.6130057222753</v>
+        <v>151.6130057222758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0006809821506108363</v>
+        <v>0.0006809821506108332</v>
       </c>
       <c r="B4" t="n">
         <v>0.1286169617862273</v>
@@ -494,12 +494,12 @@
         <v>0.1871270247229327</v>
       </c>
       <c r="D4" t="n">
-        <v>188.8697988205105</v>
+        <v>188.8697988205114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.002112946308684361</v>
+        <v>0.002112946308684369</v>
       </c>
       <c r="B5" t="n">
         <v>0.1447015929497445</v>
@@ -508,12 +508,12 @@
         <v>0.1888320545609548</v>
       </c>
       <c r="D5" t="n">
-        <v>68.48332698043986</v>
+        <v>68.48332698043959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.001262508760281199</v>
+        <v>0.001262508760281204</v>
       </c>
       <c r="B6" t="n">
         <v>0.1086103643280514</v>
@@ -522,26 +522,26 @@
         <v>0.1867007672634271</v>
       </c>
       <c r="D6" t="n">
-        <v>86.02741441878042</v>
+        <v>86.02741441878008</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001538475147949259</v>
+        <v>0.001538475147949256</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1219415481408791</v>
+        <v>0.1219415481408792</v>
       </c>
       <c r="C7" t="n">
         <v>0.1760443307757886</v>
       </c>
       <c r="D7" t="n">
-        <v>79.26130513282813</v>
+        <v>79.2613051328283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0007344569259754773</v>
+        <v>0.0007344569259754611</v>
       </c>
       <c r="B8" t="n">
         <v>0.1164852257446769</v>
@@ -550,12 +550,12 @@
         <v>0.1854219948849105</v>
       </c>
       <c r="D8" t="n">
-        <v>158.6004864614297</v>
+        <v>158.6004864614331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0007246206897652682</v>
+        <v>0.0007246206897652641</v>
       </c>
       <c r="B9" t="n">
         <v>0.1135480204218419</v>
@@ -564,12 +564,12 @@
         <v>0.1930946291560102</v>
       </c>
       <c r="D9" t="n">
-        <v>156.6999425018134</v>
+        <v>156.6999425018143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001481517141632803</v>
+        <v>0.001481517141632822</v>
       </c>
       <c r="B10" t="n">
         <v>0.128057245091253</v>
@@ -578,12 +578,12 @@
         <v>0.185848252344416</v>
       </c>
       <c r="D10" t="n">
-        <v>86.43655985655295</v>
+        <v>86.43655985655185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0009042466292148123</v>
+        <v>0.000904246629214813</v>
       </c>
       <c r="B11" t="n">
         <v>0.1150728827848459</v>
@@ -592,7 +592,7 @@
         <v>0.1930946291560102</v>
       </c>
       <c r="D11" t="n">
-        <v>127.2582933317291</v>
+        <v>127.258293331729</v>
       </c>
     </row>
   </sheetData>
